--- a/reports-api/src/features/reports/config/reports/rep-24557/template.xlsx
+++ b/reports-api/src/features/reports/config/reports/rep-24557/template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\mygithub\ie-asuse-web\reports-api\src\reports\config\reports\rep_24557\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\mygithub\ie-asuse-web\reports-api\src\features\reports\config\reports\rep-24557\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73FC6BF2-2BEC-4C84-B4F2-8EFD03D22BA5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104F096A-E065-47DD-A97D-74B3C59FCC25}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28740" windowHeight="10530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -710,7 +710,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -722,30 +722,14 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -753,25 +737,66 @@
     <xf numFmtId="0" fontId="21" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1099,7 +1124,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B1" sqref="B1:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1113,16 +1138,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C1">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14">
         <v>1</v>
       </c>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C2">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14">
         <v>2</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
@@ -1134,7 +1165,7 @@
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="13" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -1149,82 +1180,82 @@
         <f t="shared" ref="B4:B9" si="0">A4</f>
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
+    <row r="5" spans="1:6" s="5" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
         <f>A4+1</f>
         <v>2</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="11">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="7" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
+    <row r="6" spans="1:6" s="5" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
         <f>A5+1</f>
         <v>3</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <f>A6+1</f>
         <v>4</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="26" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1233,50 +1264,50 @@
         <f>A6+1</f>
         <v>4</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="12" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="12">
+    <row r="9" spans="1:6" s="7" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
         <f>A7+1</f>
         <v>5</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="29" t="s">
         <v>26</v>
       </c>
       <c r="E9" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="31" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C10" s="17"/>
+      <c r="C10" s="9"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="18">
+      <c r="B16" s="10">
         <v>1</v>
       </c>
     </row>

--- a/reports-api/src/features/reports/config/reports/rep-24557/template.xlsx
+++ b/reports-api/src/features/reports/config/reports/rep-24557/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\mygithub\ie-asuse-web\reports-api\src\features\reports\config\reports\rep-24557\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104F096A-E065-47DD-A97D-74B3C59FCC25}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0ECFE7-1283-419E-8EB6-6628F0E447DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28740" windowHeight="10530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,100 +20,17 @@
     <definedName name="NV_IAO_не_удалять_это_очень_нужный_отчет">#REF!</definedName>
     <definedName name="май">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>№ п/п</t>
   </si>
   <si>
     <t>Наименование показателя</t>
-  </si>
-  <si>
-    <t>Просроченная задолженность на начало 
-[:a0.mes_name_rp]  [:a0.god1] -го года  , в т.ч.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Просроченная задолженность 
-за [:a0.god4] год, в т.ч. </t>
-  </si>
-  <si>
-    <t>[ym4.title] года</t>
-  </si>
-  <si>
-    <t>Итого по Обществу</t>
-  </si>
-  <si>
-    <t>[:a0.dolg]</t>
-  </si>
-  <si>
-    <t>[:a0.dolg4]</t>
-  </si>
-  <si>
-    <t>[:a0.dolg_by_ym4[ym4.pfx]]</t>
-  </si>
-  <si>
-    <t>Итого по [:a.name_dep]</t>
-  </si>
-  <si>
-    <t>[:a.dolg]</t>
-  </si>
-  <si>
-    <t>[:a.dolg4]</t>
-  </si>
-  <si>
-    <t>[:a.dolg_by_ym4[ym4.pfx]]</t>
-  </si>
-  <si>
-    <t>Итого  [:c.name_pr] по  [:a.name_dep]</t>
-  </si>
-  <si>
-    <t>[:c.dolg]</t>
-  </si>
-  <si>
-    <t>[:c.dolg4]</t>
-  </si>
-  <si>
-    <t>[:c.dolg_by_ym4[ym4.pfx]]</t>
-  </si>
-  <si>
-    <t>Итого [:c.name_pr] по [:b.name_uch] , в т.ч.</t>
-  </si>
-  <si>
-    <t>[:b.dolg]</t>
-  </si>
-  <si>
-    <t>[:b.dolg4]</t>
-  </si>
-  <si>
-    <t>[:b.dolg_by_ym4[ym4.pfx]]</t>
-  </si>
-  <si>
-    <t>[:c1.name_gr]</t>
-  </si>
-  <si>
-    <t>[:c1.dolg]</t>
-  </si>
-  <si>
-    <t>[:c1.dolg4]</t>
-  </si>
-  <si>
-    <t>[:c1.dolg_by_ym4[ym4.pfx]]</t>
-  </si>
-  <si>
-    <t>[:all_dog.payer_name]</t>
-  </si>
-  <si>
-    <t>[:all_dog.dolg]</t>
-  </si>
-  <si>
-    <t>[:all_dog.dolg4]</t>
-  </si>
-  <si>
-    <t>[:all_dog.dolg_by_ym4[ym4.pfx]]</t>
   </si>
 </sst>
 </file>
@@ -1124,7 +1041,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1139,38 +1056,28 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" s="14"/>
-      <c r="C1" s="14">
-        <v>1</v>
-      </c>
+      <c r="C1" s="14"/>
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" s="14"/>
-      <c r="C2" s="14">
-        <v>2</v>
-      </c>
+      <c r="C2" s="14"/>
       <c r="D2" s="14"/>
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>
     </row>
-    <row r="3" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
@@ -1180,18 +1087,10 @@
         <f t="shared" ref="B4:B9" si="0">A4</f>
         <v>1</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>8</v>
-      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="17"/>
     </row>
     <row r="5" spans="1:6" s="5" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
@@ -1202,18 +1101,10 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>12</v>
-      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
@@ -1224,18 +1115,10 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C6" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>16</v>
-      </c>
+      <c r="C6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="23"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -1246,18 +1129,10 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C7" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>20</v>
-      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="26"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -1268,18 +1143,10 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C8" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>24</v>
-      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="26"/>
     </row>
     <row r="9" spans="1:6" s="7" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
@@ -1290,18 +1157,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C9" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="31" t="s">
-        <v>28</v>
-      </c>
+      <c r="C9" s="28"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="31"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C10" s="9"/>

--- a/reports-api/src/features/reports/config/reports/rep-24557/template.xlsx
+++ b/reports-api/src/features/reports/config/reports/rep-24557/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\mygithub\ie-asuse-web\reports-api\src\features\reports\config\reports\rep-24557\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0ECFE7-1283-419E-8EB6-6628F0E447DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50143BFB-3D94-4345-B0E3-8809CFB00DF3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28740" windowHeight="10530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,12 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>№ п/п</t>
   </si>
   <si>
     <t>Наименование показателя</t>
+  </si>
+  <si>
+    <t>Итого по Обществу</t>
   </si>
 </sst>
 </file>
@@ -229,7 +232,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -411,32 +414,56 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
       <patternFill patternType="lightUp">
-        <fgColor theme="2" tint="-9.9948118533890809E-2"/>
+        <fgColor theme="2" tint="-0.24994659260841701"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="lightUp">
-        <fgColor theme="2" tint="-9.9948118533890809E-2"/>
-        <bgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="2" tint="-0.24994659260841701"/>
+        <bgColor theme="4" tint="0.39997558519241921"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="lightUp">
-        <fgColor theme="2" tint="-9.9948118533890809E-2"/>
-        <bgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="2" tint="-0.24994659260841701"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightUp">
+        <fgColor theme="2" tint="-0.24994659260841701"/>
+        <bgColor theme="5" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightUp">
+        <fgColor theme="2" tint="-0.24994659260841701"/>
+        <bgColor theme="5" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
   </fills>
@@ -627,7 +654,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -640,9 +667,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -651,67 +675,88 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="40" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="41" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1041,32 +1086,32 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.140625" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="64.42578125" customWidth="1"/>
+    <col min="3" max="3" width="47.140625" customWidth="1"/>
     <col min="4" max="4" width="25.42578125" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
@@ -1076,7 +1121,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="13"/>
+      <c r="E3" s="31"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1087,86 +1132,88 @@
         <f t="shared" ref="B4:B9" si="0">A4</f>
         <v>1</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="17"/>
+      <c r="C4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:6" s="5" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <f>A4+1</f>
         <v>2</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="17">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="20"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="19"/>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <f>A5+1</f>
         <v>3</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="20">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="23"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="22"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <f>A6+1</f>
         <v>4</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="23">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="18"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="35"/>
       <c r="F7" s="26"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
-        <f>A6+1</f>
-        <v>4</v>
-      </c>
-      <c r="B8" s="6">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="26"/>
-    </row>
-    <row r="9" spans="1:6" s="7" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
         <f>A7+1</f>
         <v>5</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B8" s="27">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="31"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="30"/>
+    </row>
+    <row r="9" spans="1:6" s="6" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <f>A8+1</f>
+        <v>6</v>
+      </c>
+      <c r="B9" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="16"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C10" s="9"/>
+      <c r="C10" s="8"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="10">
+      <c r="B16" s="9">
         <v>1</v>
       </c>
     </row>
